--- a/Document_Api/API-V-0.5.xlsx
+++ b/Document_Api/API-V-0.5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="139">
   <si>
     <t>Base URL:</t>
   </si>
@@ -419,6 +419,18 @@
   </si>
   <si>
     <t xml:space="preserve">in url pass id </t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>http://www.freewebs.co.in/mobiapp/apis/search</t>
+  </si>
+  <si>
+    <t>search product</t>
+  </si>
+  <si>
+    <t>key  (key is search terms like cars)</t>
   </si>
 </sst>
 </file>
@@ -899,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P766"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2263,7 +2275,9 @@
       <c r="P51" s="3"/>
     </row>
     <row r="52" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
+      <c r="A52" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="B52" s="3"/>
       <c r="C52" s="7"/>
       <c r="D52" s="3"/>
@@ -2281,12 +2295,24 @@
       <c r="P52" s="3"/>
     </row>
     <row r="53" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="19"/>
+      <c r="A53" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>138</v>
+      </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
@@ -15151,8 +15177,9 @@
     <hyperlink ref="D20" r:id="rId15"/>
     <hyperlink ref="D21" r:id="rId16"/>
     <hyperlink ref="D22" r:id="rId17"/>
+    <hyperlink ref="D53" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>